--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_74_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_74_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.491704910425741, 4.987009323371169]</t>
+          <t>[4.488830318028706, 4.989883915768205]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.21098405586035351, 0.4776412611122778]</t>
+          <t>[0.21100775140436667, 0.4776175655682646]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.692863400546088e-06</v>
+        <v>4.678321564366428e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>4.692863400546088e-06</v>
+        <v>4.678321564366428e-06</v>
       </c>
       <c r="W2" t="n">
         <v>1.764444444444489</v>
